--- a/NIMS/data/testscript.xlsx
+++ b/NIMS/data/testscript.xlsx
@@ -32,9 +32,6 @@
     <t>HDFC-001</t>
   </si>
   <si>
-    <t>Banking</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>(2,1)</t>
+  </si>
+  <si>
+    <t>Banking Project</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,13 +492,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -528,130 +528,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
